--- a/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
+++ b/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
@@ -3011,6 +3011,80 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8658225" y="781050"/>
+          <a:ext cx="5962650" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>So we need to keep making the list of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> all the addresses of the companies on the Distant Company List (right now its all our companies). Once we have the list that has been started on the local company tab, we can filter out anything that is more then 20 minutes away and put it into the Distant Company sheet. The local companies will be visited in person with the sponsorship package by 2 SEDS members, and the distant companies will be emailed. This will all happen by the end of next week! </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:J210" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B1:J210"/>
@@ -7158,7 +7232,7 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7166,7 +7240,7 @@
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="83.42578125" customWidth="1"/>
     <col min="5" max="5" width="48.28515625" customWidth="1"/>
     <col min="6" max="6" width="76.42578125" customWidth="1"/>
     <col min="7" max="7" width="169" bestFit="1" customWidth="1"/>
@@ -8515,8 +8589,9 @@
     <hyperlink ref="C9" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
+++ b/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Original Sponsor List" sheetId="3" r:id="rId1"/>
-    <sheet name="Distant Company" sheetId="5" r:id="rId2"/>
+    <sheet name="Company List" sheetId="5" r:id="rId2"/>
     <sheet name="Local Company" sheetId="6" r:id="rId3"/>
+    <sheet name="Distant Company" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Original Sponsor List'!$A:$A</definedName>
@@ -3425,7 +3426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
@@ -7231,7 +7232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -8600,7 +8601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -9603,4 +9604,18 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
+++ b/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNHSEDS\Business\Finance\Sponsorship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Original Sponsor List" sheetId="3" r:id="rId1"/>
     <sheet name="Company List" sheetId="5" r:id="rId2"/>
-    <sheet name="Local Company" sheetId="6" r:id="rId3"/>
-    <sheet name="Distant Company" sheetId="8" r:id="rId4"/>
+    <sheet name="Distant Company" sheetId="6" r:id="rId3"/>
+    <sheet name="Local Company" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Original Sponsor List'!$A:$A</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="848">
   <si>
     <t>Company Name</t>
   </si>
@@ -2144,9 +2144,6 @@
     <t> sales@land-and-sea.com</t>
   </si>
   <si>
-    <t>Local Company</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -2172,6 +2169,405 @@
   </si>
   <si>
     <t>110 Towle Farm Rd, Hampton, NH 03842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ohio </t>
+  </si>
+  <si>
+    <t>(800) 821-3283</t>
+  </si>
+  <si>
+    <t>1 Bouchard St, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>(603) 669-8523</t>
+  </si>
+  <si>
+    <t>34 Executive Dr, Hudson, NH 03051</t>
+  </si>
+  <si>
+    <t>(800) 274-2813</t>
+  </si>
+  <si>
+    <t>340 NH-16B, Center Ossipee, NH 03814</t>
+  </si>
+  <si>
+    <t>(603) 539-4538</t>
+  </si>
+  <si>
+    <t>575 Province Road Laconia, NH 03246</t>
+  </si>
+  <si>
+    <t>(603) 528-0141</t>
+  </si>
+  <si>
+    <t>8 Columbia Dr, Amherst, NH 03031</t>
+  </si>
+  <si>
+    <t>31 Industrial Park Dr, Hooksett, NH 03106</t>
+  </si>
+  <si>
+    <t>10 Manor Pkwy #3, Salem, NH 03079</t>
+  </si>
+  <si>
+    <t>(603) 893-7600</t>
+  </si>
+  <si>
+    <t>3308, 50 Ammon Dr, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>(603) 669-4050</t>
+  </si>
+  <si>
+    <t>10 Basin St, Concord, NH 03301</t>
+  </si>
+  <si>
+    <t>(603) 225-2047</t>
+  </si>
+  <si>
+    <t>220 Daniel Webster Hwy, Merrimack, NH 03054</t>
+  </si>
+  <si>
+    <t>(603) 889-2500</t>
+  </si>
+  <si>
+    <t>74 Industrial Park Dr, Dover, NH 03820</t>
+  </si>
+  <si>
+    <t>121 Technology Dr, Durham, NH 03824</t>
+  </si>
+  <si>
+    <t>15 Newmarket Rd, Durham, NH 03824</t>
+  </si>
+  <si>
+    <t>933 Islington St, Portsmouth, NH 03801</t>
+  </si>
+  <si>
+    <t>22 Interstate Dr, Somersworth, NH 03878</t>
+  </si>
+  <si>
+    <t>71 Pine Rd # F, Hudson, NH 03051</t>
+  </si>
+  <si>
+    <t>(603) 883-6531</t>
+  </si>
+  <si>
+    <t>300 Dan Rd, Canton, MA 02021</t>
+  </si>
+  <si>
+    <t>(781) 830-0340</t>
+  </si>
+  <si>
+    <t>305 Massabesic St, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>166 Crescent Rd, Needham Heights, MA 02494</t>
+  </si>
+  <si>
+    <t>37 Will St, Nashua, NH 03060</t>
+  </si>
+  <si>
+    <t>(800) 488-7747</t>
+  </si>
+  <si>
+    <t>74 Bodwell St, Avon, MA 02322</t>
+  </si>
+  <si>
+    <t>(508) 587-3500</t>
+  </si>
+  <si>
+    <t>234 Abby Rd, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>(603) 644-1555</t>
+  </si>
+  <si>
+    <t>71 Portsmouth Ave, Stratham, NH 03885</t>
+  </si>
+  <si>
+    <t>(603) 772-0000</t>
+  </si>
+  <si>
+    <t>282 W Knox Marsh Rd, Madbury, NH 03823</t>
+  </si>
+  <si>
+    <t>(603) 743-3559</t>
+  </si>
+  <si>
+    <t>248 Mill Rd, Chelmsford, MA 01824</t>
+  </si>
+  <si>
+    <t>(978) 256-7231</t>
+  </si>
+  <si>
+    <t>35 Industrial Way, Rochester, NH 03867</t>
+  </si>
+  <si>
+    <t>(603) 692-6300</t>
+  </si>
+  <si>
+    <t>626 Lafayette Rd, Seabrook, NH 03874</t>
+  </si>
+  <si>
+    <t>113 Wells St, North Berwick, ME 03906</t>
+  </si>
+  <si>
+    <t>45 S Main St, Concord, NH 03301</t>
+  </si>
+  <si>
+    <t>(603) 226-0404</t>
+  </si>
+  <si>
+    <t>46 Manila Ave, Hamden, CT 06514</t>
+  </si>
+  <si>
+    <t>(203) 288-8241</t>
+  </si>
+  <si>
+    <t>20 Trafalgar Square, Nashua, NH 03063</t>
+  </si>
+  <si>
+    <t>(603) 883-5200</t>
+  </si>
+  <si>
+    <t>7 Micro Dr, Woburn, MA 01801</t>
+  </si>
+  <si>
+    <t>(781) 932-0035</t>
+  </si>
+  <si>
+    <t>45 Londonderry Turnpike #5, Hooksett, NH 03106</t>
+  </si>
+  <si>
+    <t>(603) 666-0200</t>
+  </si>
+  <si>
+    <t>36 Cote Ave, Goffstown, NH 03045</t>
+  </si>
+  <si>
+    <t>(603) 626-5500</t>
+  </si>
+  <si>
+    <t>11 Caldwell Dr, Amherst, NH 03031</t>
+  </si>
+  <si>
+    <t>(603) 204-5542</t>
+  </si>
+  <si>
+    <t>36 Lane Rd, Derry, NH 03038</t>
+  </si>
+  <si>
+    <t>(603) 434-2097</t>
+  </si>
+  <si>
+    <t>44 Crystal Ave, Derry, NH 03038</t>
+  </si>
+  <si>
+    <t>(603) 425-6222</t>
+  </si>
+  <si>
+    <t>102 Tide Mill Rd # 12, Hampton, NH 03842</t>
+  </si>
+  <si>
+    <t>9 Akira Way, Londonderry, NH 03053</t>
+  </si>
+  <si>
+    <t>41 Washington St, Seabrook, NH 03874</t>
+  </si>
+  <si>
+    <t>144 Lexington Dr, Laconia, NH 03246</t>
+  </si>
+  <si>
+    <t>(603) 528-1871</t>
+  </si>
+  <si>
+    <t>1057 Calef Hwy, Barrington, NH 03825</t>
+  </si>
+  <si>
+    <t>(603) 664-4004</t>
+  </si>
+  <si>
+    <t>316 Daniel Webster Hwy, Merrimack, NH 03054</t>
+  </si>
+  <si>
+    <t>(603) 429-9700</t>
+  </si>
+  <si>
+    <t>20 Continental Blvd, Merrimack, NH 03054</t>
+  </si>
+  <si>
+    <t>(603) 670-9977</t>
+  </si>
+  <si>
+    <t>44 Maple St, Dover, NH 03820</t>
+  </si>
+  <si>
+    <t>(603) 740-9818</t>
+  </si>
+  <si>
+    <t>25 Front St, Nashua, NH 03064</t>
+  </si>
+  <si>
+    <t>325 Corporate Dr, Portsmouth, NH 03801</t>
+  </si>
+  <si>
+    <t>(603) 436-0700</t>
+  </si>
+  <si>
+    <t>1 Industrial Dr, Pelham, NH 03076</t>
+  </si>
+  <si>
+    <t>(603) 889-6871</t>
+  </si>
+  <si>
+    <t>15 Wing Farm Pkwy, Bath, ME 04530</t>
+  </si>
+  <si>
+    <t>(207) 442-7007</t>
+  </si>
+  <si>
+    <t>42 Dick Tracy Dr, Pelham, NH 03076</t>
+  </si>
+  <si>
+    <t>(603) 886-7226</t>
+  </si>
+  <si>
+    <t>33 Londonderry Rd # 13, Londonderry, NH 03053</t>
+  </si>
+  <si>
+    <t>38 Henniker St, Concord, NH 03301</t>
+  </si>
+  <si>
+    <t>39 Bridge St, Nashua, NH 03060</t>
+  </si>
+  <si>
+    <t>(603) 594-8787</t>
+  </si>
+  <si>
+    <t>168 Lawrence Rd, Salem, NH 03079</t>
+  </si>
+  <si>
+    <t>48 Spencer St, Lebanon, NH 03766</t>
+  </si>
+  <si>
+    <t>(603) 448-1562</t>
+  </si>
+  <si>
+    <t>594 Elm St, Milford, NH 03055</t>
+  </si>
+  <si>
+    <t>(603) 673-1100</t>
+  </si>
+  <si>
+    <t>1500 Main St, Springfield, MA 01103</t>
+  </si>
+  <si>
+    <t>(413) 382-0210</t>
+  </si>
+  <si>
+    <t>311 Kimball Hill Rd, Wilton, NH 03086</t>
+  </si>
+  <si>
+    <t>(866) 742-0442</t>
+  </si>
+  <si>
+    <t>153 Main St, Salem, NH 03079</t>
+  </si>
+  <si>
+    <t>(603) 898-3467</t>
+  </si>
+  <si>
+    <t>680 Hayward St, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>(603) 622-3500</t>
+  </si>
+  <si>
+    <t>879 Maple St, Contoocook, NH 03229</t>
+  </si>
+  <si>
+    <t>(603) 746-5524</t>
+  </si>
+  <si>
+    <t>230 Old Homestead Hwy, Swanzey, NH 03446</t>
+  </si>
+  <si>
+    <t>57 Daniel Webster Hwy, Merrimack, NH 03054</t>
+  </si>
+  <si>
+    <t>145 Bodwell St # J, Avon, MA 02322</t>
+  </si>
+  <si>
+    <t>(508) 580-2024</t>
+  </si>
+  <si>
+    <t>47 Crosby Rd, Dover, NH 03820</t>
+  </si>
+  <si>
+    <t>1275 Maplewood Ave # 24, Portsmouth, NH 03801</t>
+  </si>
+  <si>
+    <t>235 Presidential Way, Woburn, MA 01801</t>
+  </si>
+  <si>
+    <t>(339) 645-6000</t>
+  </si>
+  <si>
+    <t>Jaffrey, NH</t>
+  </si>
+  <si>
+    <t>(603) 593-5346</t>
+  </si>
+  <si>
+    <t>315 Derry St # 15, Hudson, NH 03051</t>
+  </si>
+  <si>
+    <t>55 Industrial Park Dr, Franklin, NH 03235</t>
+  </si>
+  <si>
+    <t>(603) 671-7016</t>
+  </si>
+  <si>
+    <t>82 Benning St, West Lebanon, NH 03784</t>
+  </si>
+  <si>
+    <t>7 Optical Ave, Keene, NH 03431</t>
+  </si>
+  <si>
+    <t>(603) 352-0310</t>
+  </si>
+  <si>
+    <t>10 Willand Dr, Somersworth, NH 03878</t>
+  </si>
+  <si>
+    <t>(603) 750-7100</t>
+  </si>
+  <si>
+    <t>100 Piscataqua Dr, Newington, NH 03801</t>
+  </si>
+  <si>
+    <t>1 Washington St, Dover, NH 03820</t>
+  </si>
+  <si>
+    <t>20 Executive Dr, Hudson, NH 03051</t>
+  </si>
+  <si>
+    <t>(603) 577-9970</t>
+  </si>
+  <si>
+    <t>330 New Rochester Road, Somersworth, NH 03878</t>
+  </si>
+  <si>
+    <t>(603) 692-0398</t>
+  </si>
+  <si>
+    <t>33 Bridge St, Pelham, NH 03076</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>In Person (Reilly and Charlie)</t>
   </si>
   <si>
     <r>
@@ -2179,431 +2575,21 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF222222"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>230 Commerce Way #302, Portsmouth, NH 03801</t>
     </r>
-  </si>
-  <si>
-    <t>wisconsin</t>
-  </si>
-  <si>
-    <t>(715) 842-0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ohio </t>
-  </si>
-  <si>
-    <t>(800) 821-3283</t>
-  </si>
-  <si>
-    <t>1 Bouchard St, Manchester, NH 03103</t>
-  </si>
-  <si>
-    <t>(603) 669-8523</t>
-  </si>
-  <si>
-    <t>34 Executive Dr, Hudson, NH 03051</t>
-  </si>
-  <si>
-    <t>(800) 274-2813</t>
-  </si>
-  <si>
-    <t>340 NH-16B, Center Ossipee, NH 03814</t>
-  </si>
-  <si>
-    <t>(603) 539-4538</t>
-  </si>
-  <si>
-    <t>575 Province Road Laconia, NH 03246</t>
-  </si>
-  <si>
-    <t>(603) 528-0141</t>
-  </si>
-  <si>
-    <t>8 Columbia Dr, Amherst, NH 03031</t>
-  </si>
-  <si>
-    <t>31 Industrial Park Dr, Hooksett, NH 03106</t>
-  </si>
-  <si>
-    <t>10 Manor Pkwy #3, Salem, NH 03079</t>
-  </si>
-  <si>
-    <t>(603) 893-7600</t>
-  </si>
-  <si>
-    <t>3308, 50 Ammon Dr, Manchester, NH 03103</t>
-  </si>
-  <si>
-    <t>(603) 669-4050</t>
-  </si>
-  <si>
-    <t>10 Basin St, Concord, NH 03301</t>
-  </si>
-  <si>
-    <t>(603) 225-2047</t>
-  </si>
-  <si>
-    <t>220 Daniel Webster Hwy, Merrimack, NH 03054</t>
-  </si>
-  <si>
-    <t>(603) 889-2500</t>
-  </si>
-  <si>
-    <t>74 Industrial Park Dr, Dover, NH 03820</t>
-  </si>
-  <si>
-    <t>121 Technology Dr, Durham, NH 03824</t>
-  </si>
-  <si>
-    <t>15 Newmarket Rd, Durham, NH 03824</t>
-  </si>
-  <si>
-    <t>933 Islington St, Portsmouth, NH 03801</t>
-  </si>
-  <si>
-    <t>22 Interstate Dr, Somersworth, NH 03878</t>
-  </si>
-  <si>
-    <t>71 Pine Rd # F, Hudson, NH 03051</t>
-  </si>
-  <si>
-    <t>(603) 883-6531</t>
-  </si>
-  <si>
-    <t>300 Dan Rd, Canton, MA 02021</t>
-  </si>
-  <si>
-    <t>(781) 830-0340</t>
-  </si>
-  <si>
-    <t>305 Massabesic St, Manchester, NH 03103</t>
-  </si>
-  <si>
-    <t>166 Crescent Rd, Needham Heights, MA 02494</t>
-  </si>
-  <si>
-    <t>390 Highland Ave, Littleton, NH 03561</t>
-  </si>
-  <si>
-    <t>(866) 977-5312</t>
-  </si>
-  <si>
-    <t>37 Will St, Nashua, NH 03060</t>
-  </si>
-  <si>
-    <t>(800) 488-7747</t>
-  </si>
-  <si>
-    <t>74 Bodwell St, Avon, MA 02322</t>
-  </si>
-  <si>
-    <t>(508) 587-3500</t>
-  </si>
-  <si>
-    <t>234 Abby Rd, Manchester, NH 03103</t>
-  </si>
-  <si>
-    <t>(603) 644-1555</t>
-  </si>
-  <si>
-    <t>71 Portsmouth Ave, Stratham, NH 03885</t>
-  </si>
-  <si>
-    <t>(603) 772-0000</t>
-  </si>
-  <si>
-    <t>282 W Knox Marsh Rd, Madbury, NH 03823</t>
-  </si>
-  <si>
-    <t>(603) 743-3559</t>
-  </si>
-  <si>
-    <t>248 Mill Rd, Chelmsford, MA 01824</t>
-  </si>
-  <si>
-    <t>(978) 256-7231</t>
-  </si>
-  <si>
-    <t>35 Industrial Way, Rochester, NH 03867</t>
-  </si>
-  <si>
-    <t>(603) 692-6300</t>
-  </si>
-  <si>
-    <t>626 Lafayette Rd, Seabrook, NH 03874</t>
-  </si>
-  <si>
-    <t>113 Wells St, North Berwick, ME 03906</t>
-  </si>
-  <si>
-    <t>45 S Main St, Concord, NH 03301</t>
-  </si>
-  <si>
-    <t>(603) 226-0404</t>
-  </si>
-  <si>
-    <t>46 Manila Ave, Hamden, CT 06514</t>
-  </si>
-  <si>
-    <t>(203) 288-8241</t>
-  </si>
-  <si>
-    <t>20 Trafalgar Square, Nashua, NH 03063</t>
-  </si>
-  <si>
-    <t>(603) 883-5200</t>
-  </si>
-  <si>
-    <t>7 Micro Dr, Woburn, MA 01801</t>
-  </si>
-  <si>
-    <t>(781) 932-0035</t>
-  </si>
-  <si>
-    <t>45 Londonderry Turnpike #5, Hooksett, NH 03106</t>
-  </si>
-  <si>
-    <t>(603) 666-0200</t>
-  </si>
-  <si>
-    <t>36 Cote Ave, Goffstown, NH 03045</t>
-  </si>
-  <si>
-    <t>(603) 626-5500</t>
-  </si>
-  <si>
-    <t>11 Caldwell Dr, Amherst, NH 03031</t>
-  </si>
-  <si>
-    <t>(603) 204-5542</t>
-  </si>
-  <si>
-    <t>36 Lane Rd, Derry, NH 03038</t>
-  </si>
-  <si>
-    <t>(603) 434-2097</t>
-  </si>
-  <si>
-    <t>44 Crystal Ave, Derry, NH 03038</t>
-  </si>
-  <si>
-    <t>(603) 425-6222</t>
-  </si>
-  <si>
-    <t>102 Tide Mill Rd # 12, Hampton, NH 03842</t>
-  </si>
-  <si>
-    <t>9 Akira Way, Londonderry, NH 03053</t>
-  </si>
-  <si>
-    <t>41 Washington St, Seabrook, NH 03874</t>
-  </si>
-  <si>
-    <t>144 Lexington Dr, Laconia, NH 03246</t>
-  </si>
-  <si>
-    <t>(603) 528-1871</t>
-  </si>
-  <si>
-    <t>1057 Calef Hwy, Barrington, NH 03825</t>
-  </si>
-  <si>
-    <t>(603) 664-4004</t>
-  </si>
-  <si>
-    <t>316 Daniel Webster Hwy, Merrimack, NH 03054</t>
-  </si>
-  <si>
-    <t>(603) 429-9700</t>
-  </si>
-  <si>
-    <t>20 Continental Blvd, Merrimack, NH 03054</t>
-  </si>
-  <si>
-    <t>(603) 670-9977</t>
-  </si>
-  <si>
-    <t>44 Maple St, Dover, NH 03820</t>
-  </si>
-  <si>
-    <t>(603) 740-9818</t>
-  </si>
-  <si>
-    <t>25 Front St, Nashua, NH 03064</t>
-  </si>
-  <si>
-    <t>325 Corporate Dr, Portsmouth, NH 03801</t>
-  </si>
-  <si>
-    <t>(603) 436-0700</t>
-  </si>
-  <si>
-    <t>1 Industrial Dr, Pelham, NH 03076</t>
-  </si>
-  <si>
-    <t>(603) 889-6871</t>
-  </si>
-  <si>
-    <t>15 Wing Farm Pkwy, Bath, ME 04530</t>
-  </si>
-  <si>
-    <t>(207) 442-7007</t>
-  </si>
-  <si>
-    <t>42 Dick Tracy Dr, Pelham, NH 03076</t>
-  </si>
-  <si>
-    <t>(603) 886-7226</t>
-  </si>
-  <si>
-    <t>33 Londonderry Rd # 13, Londonderry, NH 03053</t>
-  </si>
-  <si>
-    <t>38 Henniker St, Concord, NH 03301</t>
-  </si>
-  <si>
-    <t>39 Bridge St, Nashua, NH 03060</t>
-  </si>
-  <si>
-    <t>(603) 594-8787</t>
-  </si>
-  <si>
-    <t>168 Lawrence Rd, Salem, NH 03079</t>
-  </si>
-  <si>
-    <t>48 Spencer St, Lebanon, NH 03766</t>
-  </si>
-  <si>
-    <t>(603) 448-1562</t>
-  </si>
-  <si>
-    <t>594 Elm St, Milford, NH 03055</t>
-  </si>
-  <si>
-    <t>(603) 673-1100</t>
-  </si>
-  <si>
-    <t>1500 Main St, Springfield, MA 01103</t>
-  </si>
-  <si>
-    <t>(413) 382-0210</t>
-  </si>
-  <si>
-    <t>311 Kimball Hill Rd, Wilton, NH 03086</t>
-  </si>
-  <si>
-    <t>(866) 742-0442</t>
-  </si>
-  <si>
-    <t>153 Main St, Salem, NH 03079</t>
-  </si>
-  <si>
-    <t>(603) 898-3467</t>
-  </si>
-  <si>
-    <t>680 Hayward St, Manchester, NH 03103</t>
-  </si>
-  <si>
-    <t>(603) 622-3500</t>
-  </si>
-  <si>
-    <t>879 Maple St, Contoocook, NH 03229</t>
-  </si>
-  <si>
-    <t>(603) 746-5524</t>
-  </si>
-  <si>
-    <t>230 Old Homestead Hwy, Swanzey, NH 03446</t>
-  </si>
-  <si>
-    <t>57 Daniel Webster Hwy, Merrimack, NH 03054</t>
-  </si>
-  <si>
-    <t>145 Bodwell St # J, Avon, MA 02322</t>
-  </si>
-  <si>
-    <t>(508) 580-2024</t>
-  </si>
-  <si>
-    <t>47 Crosby Rd, Dover, NH 03820</t>
-  </si>
-  <si>
-    <t>1275 Maplewood Ave # 24, Portsmouth, NH 03801</t>
-  </si>
-  <si>
-    <t>235 Presidential Way, Woburn, MA 01801</t>
-  </si>
-  <si>
-    <t>(339) 645-6000</t>
-  </si>
-  <si>
-    <t>Jaffrey, NH</t>
-  </si>
-  <si>
-    <t>(603) 593-5346</t>
-  </si>
-  <si>
-    <t>315 Derry St # 15, Hudson, NH 03051</t>
-  </si>
-  <si>
-    <t>55 Industrial Park Dr, Franklin, NH 03235</t>
-  </si>
-  <si>
-    <t>(603) 671-7016</t>
-  </si>
-  <si>
-    <t>82 Benning St, West Lebanon, NH 03784</t>
-  </si>
-  <si>
-    <t>7 Optical Ave, Keene, NH 03431</t>
-  </si>
-  <si>
-    <t>(603) 352-0310</t>
-  </si>
-  <si>
-    <t>10 Willand Dr, Somersworth, NH 03878</t>
-  </si>
-  <si>
-    <t>(603) 750-7100</t>
-  </si>
-  <si>
-    <t>100 Piscataqua Dr, Newington, NH 03801</t>
-  </si>
-  <si>
-    <t>1 Washington St, Dover, NH 03820</t>
-  </si>
-  <si>
-    <t>20 Executive Dr, Hudson, NH 03051</t>
-  </si>
-  <si>
-    <t>(603) 577-9970</t>
-  </si>
-  <si>
-    <t>330 New Rochester Road, Somersworth, NH 03878</t>
-  </si>
-  <si>
-    <t>(603) 692-0398</t>
-  </si>
-  <si>
-    <t>33 Bridge St, Pelham, NH 03076</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>In Person (Reilly and Charlie)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2627,37 +2613,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="7"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5B5B5B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF5B5B5B"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2674,7 +2656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2693,12 +2675,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2723,23 +2718,177 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3029,7 +3178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3087,51 +3242,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:J210" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:J210" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B1:J210"/>
   <sortState ref="B2:J210">
     <sortCondition ref="B1:B210"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Company Name" dataDxfId="12"/>
-    <tableColumn id="2" name="Phone Number" dataDxfId="11"/>
-    <tableColumn id="6" name="Secondary Phone Number" dataDxfId="10"/>
-    <tableColumn id="3" name="Email" dataDxfId="9"/>
-    <tableColumn id="4" name="Secondary Email (If Given)" dataDxfId="8"/>
-    <tableColumn id="5" name="Contact Name for EMAIL" dataDxfId="7"/>
-    <tableColumn id="7" name="Information" dataDxfId="6"/>
-    <tableColumn id="8" name="LinkedIn/WebForm" dataDxfId="5"/>
-    <tableColumn id="9" name="Column1" dataDxfId="4"/>
+    <tableColumn id="1" name="Company Name" dataDxfId="23"/>
+    <tableColumn id="2" name="Phone Number" dataDxfId="22"/>
+    <tableColumn id="6" name="Secondary Phone Number" dataDxfId="21"/>
+    <tableColumn id="3" name="Email" dataDxfId="20"/>
+    <tableColumn id="4" name="Secondary Email (If Given)" dataDxfId="19"/>
+    <tableColumn id="5" name="Contact Name for EMAIL" dataDxfId="18"/>
+    <tableColumn id="7" name="Information" dataDxfId="17"/>
+    <tableColumn id="8" name="LinkedIn/WebForm" dataDxfId="16"/>
+    <tableColumn id="9" name="Column1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C129" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C129" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A1:C129"/>
   <sortState ref="A2:K129">
     <sortCondition ref="A1:A129"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="2" name="Company" dataDxfId="2"/>
-    <tableColumn id="3" name="Number" dataDxfId="1"/>
-    <tableColumn id="5" name="Email" dataDxfId="0"/>
+    <tableColumn id="2" name="Company" dataDxfId="13"/>
+    <tableColumn id="3" name="Number" dataDxfId="12"/>
+    <tableColumn id="5" name="Email" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C102" totalsRowShown="0">
-  <autoFilter ref="A1:C102"/>
-  <sortState ref="A2:C96">
-    <sortCondition ref="A1:A102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D70" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:D70"/>
+  <sortState ref="A2:C69">
+    <sortCondition ref="A1:A70"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Local Company"/>
-    <tableColumn id="2" name="Address"/>
-    <tableColumn id="3" name="Phone Number"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Company Name" dataDxfId="10"/>
+    <tableColumn id="2" name="Address" dataDxfId="9"/>
+    <tableColumn id="3" name="Phone Number" dataDxfId="8"/>
+    <tableColumn id="4" name="Email" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E25" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:E25"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Company Name" dataDxfId="5"/>
+    <tableColumn id="2" name="Address" dataDxfId="4"/>
+    <tableColumn id="3" name="Number" dataDxfId="3"/>
+    <tableColumn id="4" name="Email" dataDxfId="2"/>
+    <tableColumn id="5" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3426,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
@@ -7232,8 +7402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7249,7 +7419,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B1" t="s">
         <v>703</v>
@@ -8585,9 +8755,9 @@
     <hyperlink ref="C34" r:id="rId15"/>
     <hyperlink ref="C110" r:id="rId16"/>
     <hyperlink ref="C99" r:id="rId17"/>
-    <hyperlink ref="C41" r:id="rId18"/>
-    <hyperlink ref="C97" r:id="rId19"/>
-    <hyperlink ref="C9" r:id="rId20"/>
+    <hyperlink ref="C97" r:id="rId18"/>
+    <hyperlink ref="C9" r:id="rId19"/>
+    <hyperlink ref="C41" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId21"/>
@@ -8599,1023 +8769,1296 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
-    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>705</v>
-      </c>
-      <c r="B1" t="s">
-        <v>706</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>753</v>
-      </c>
-      <c r="C2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>808</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C26" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>809</v>
-      </c>
-      <c r="C7" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C46" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D52" s="18"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C58" s="16" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="D58" s="17" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="D59" s="16"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="D64" s="16"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="D65" s="16"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="D66" s="16"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>767</v>
-      </c>
-      <c r="C10" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>757</v>
-      </c>
-      <c r="C11" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>773</v>
-      </c>
-      <c r="C12" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>799</v>
-      </c>
-      <c r="C13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>751</v>
-      </c>
-      <c r="C14" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>777</v>
-      </c>
-      <c r="C16" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" t="s">
-        <v>734</v>
-      </c>
-      <c r="C18" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>716</v>
-      </c>
-      <c r="C19" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" t="s">
-        <v>763</v>
-      </c>
-      <c r="C20" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" t="s">
-        <v>728</v>
-      </c>
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" t="s">
-        <v>803</v>
-      </c>
-      <c r="C22" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" t="s">
-        <v>796</v>
-      </c>
-      <c r="C23" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" t="s">
-        <v>783</v>
-      </c>
-      <c r="C24" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" t="s">
-        <v>736</v>
-      </c>
-      <c r="C26" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D68" s="18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C69" s="16" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" t="s">
-        <v>732</v>
-      </c>
-      <c r="C28" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" t="s">
-        <v>811</v>
-      </c>
-      <c r="C29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" t="s">
-        <v>729</v>
-      </c>
-      <c r="C30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B31" t="s">
-        <v>729</v>
-      </c>
-      <c r="C31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" t="s">
-        <v>790</v>
-      </c>
-      <c r="C33" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" t="s">
-        <v>812</v>
-      </c>
-      <c r="C34" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B35" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B37" t="s">
-        <v>771</v>
-      </c>
-      <c r="C37" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B38" t="s">
-        <v>814</v>
-      </c>
-      <c r="C38" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B39" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B40" t="s">
-        <v>816</v>
-      </c>
-      <c r="C40" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B41" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B42" t="s">
-        <v>818</v>
-      </c>
-      <c r="C42" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B43" t="s">
-        <v>736</v>
-      </c>
-      <c r="C43" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B44" t="s">
-        <v>820</v>
-      </c>
-      <c r="C44" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="B45" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B46" t="s">
-        <v>788</v>
-      </c>
-      <c r="C46" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B47" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B48" t="s">
-        <v>822</v>
-      </c>
-      <c r="C48" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B49" t="s">
-        <v>824</v>
-      </c>
-      <c r="C49" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B50" t="s">
-        <v>755</v>
-      </c>
-      <c r="C50" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B51" t="s">
-        <v>724</v>
-      </c>
-      <c r="C51" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B52" t="s">
-        <v>826</v>
-      </c>
-      <c r="C52" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B53" t="s">
-        <v>827</v>
-      </c>
-      <c r="C53" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B54" t="s">
-        <v>769</v>
-      </c>
-      <c r="C54" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B55" t="s">
-        <v>828</v>
-      </c>
-      <c r="C55" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B56" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="B57" t="s">
-        <v>720</v>
-      </c>
-      <c r="C57" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B58" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B59" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B60" t="s">
-        <v>726</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B61" t="s">
-        <v>805</v>
-      </c>
-      <c r="C61" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B62" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B63" t="s">
-        <v>766</v>
-      </c>
-      <c r="C63" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B64" t="s">
-        <v>730</v>
-      </c>
-      <c r="C64" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B65" t="s">
-        <v>798</v>
-      </c>
-      <c r="C65" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B66" t="s">
-        <v>743</v>
-      </c>
-      <c r="C66" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B68" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B69" t="s">
-        <v>832</v>
-      </c>
-      <c r="C69" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="B70" t="s">
-        <v>834</v>
-      </c>
-      <c r="C70" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B71" t="s">
-        <v>836</v>
-      </c>
-      <c r="C71" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B72" t="s">
-        <v>761</v>
-      </c>
-      <c r="C72" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B73" t="s">
-        <v>779</v>
-      </c>
-      <c r="C73" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B74" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B75" t="s">
-        <v>713</v>
-      </c>
-      <c r="C75" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="B76" t="s">
-        <v>792</v>
-      </c>
-      <c r="C76" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="B77" t="s">
-        <v>837</v>
-      </c>
-      <c r="C77" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B78" t="s">
-        <v>745</v>
-      </c>
-      <c r="C78" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B79" t="s">
-        <v>781</v>
-      </c>
-      <c r="C79" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B80" t="s">
-        <v>839</v>
-      </c>
-      <c r="C80" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="B81" t="s">
-        <v>840</v>
-      </c>
-      <c r="C81" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="B82" t="s">
-        <v>842</v>
-      </c>
-      <c r="C82" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="B83" t="s">
-        <v>794</v>
-      </c>
-      <c r="C83" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="B84" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="B85" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="B86" t="s">
-        <v>747</v>
-      </c>
-      <c r="C86" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="B87" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="B88" t="s">
-        <v>846</v>
-      </c>
-      <c r="C88" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="B89" t="s">
-        <v>848</v>
-      </c>
-      <c r="C89" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="B90" t="s">
-        <v>801</v>
-      </c>
-      <c r="C90" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="B91" t="s">
-        <v>850</v>
-      </c>
-      <c r="C91" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="B92" t="s">
-        <v>748</v>
-      </c>
-      <c r="C92" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="C93" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="B94" t="s">
-        <v>722</v>
-      </c>
-      <c r="C94" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="B96" t="s">
-        <v>749</v>
-      </c>
-      <c r="C96" t="s">
-        <v>750</v>
-      </c>
+      <c r="D69" s="18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="https://www.dynomitedynamometer.com/corporate/directions.htm"/>
+    <hyperlink ref="B17" r:id="rId1" display="https://www.dynomitedynamometer.com/corporate/directions.htm"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
+    <hyperlink ref="D17" r:id="rId6"/>
+    <hyperlink ref="D18" r:id="rId7"/>
+    <hyperlink ref="D22" r:id="rId8"/>
+    <hyperlink ref="D25" r:id="rId9"/>
+    <hyperlink ref="D47" r:id="rId10"/>
+    <hyperlink ref="D54" r:id="rId11"/>
+    <hyperlink ref="D55" r:id="rId12"/>
+    <hyperlink ref="D58" r:id="rId13"/>
+    <hyperlink ref="D63" r:id="rId14"/>
+    <hyperlink ref="D67" r:id="rId15"/>
+    <hyperlink ref="D2" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>842</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>838</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
+++ b/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNHSEDS\Business\Finance\Sponsorship\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="848">
   <si>
     <t>Company Name</t>
   </si>
@@ -2642,7 +2642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2655,8 +2655,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2688,12 +2694,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2751,23 +2770,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2833,6 +2857,17 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3278,30 +3313,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D70" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D70" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="A1:D70"/>
   <sortState ref="A2:C69">
     <sortCondition ref="A1:A70"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Company Name" dataDxfId="10"/>
-    <tableColumn id="2" name="Address" dataDxfId="9"/>
-    <tableColumn id="3" name="Phone Number" dataDxfId="8"/>
-    <tableColumn id="4" name="Email" dataDxfId="7"/>
+    <tableColumn id="1" name="Company Name" dataDxfId="9"/>
+    <tableColumn id="2" name="Address" dataDxfId="8"/>
+    <tableColumn id="3" name="Phone Number" dataDxfId="7"/>
+    <tableColumn id="4" name="Email" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E25" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E25" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E25"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Company Name" dataDxfId="5"/>
-    <tableColumn id="2" name="Address" dataDxfId="4"/>
-    <tableColumn id="3" name="Number" dataDxfId="3"/>
-    <tableColumn id="4" name="Email" dataDxfId="2"/>
-    <tableColumn id="5" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" name="Company Name" dataDxfId="4"/>
+    <tableColumn id="2" name="Address" dataDxfId="3"/>
+    <tableColumn id="3" name="Number" dataDxfId="2"/>
+    <tableColumn id="4" name="Email" dataDxfId="1"/>
+    <tableColumn id="5" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9706,10 +9741,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9900,14 +9935,14 @@
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
         <v>283</v>
       </c>
       <c r="E15" s="16"/>
@@ -10049,6 +10084,74 @@
         <v>30</v>
       </c>
       <c r="E25" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>839</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="11" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
+++ b/Business/Finance/Sponsorship/Companies 2018-2019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="851">
   <si>
     <t>Company Name</t>
   </si>
@@ -2583,6 +2583,15 @@
       </rPr>
       <t>230 Commerce Way #302, Portsmouth, NH 03801</t>
     </r>
+  </si>
+  <si>
+    <t>Notes, Who Went</t>
+  </si>
+  <si>
+    <t>Silas and Charlie, took PDF. Grace should follow up soon.</t>
+  </si>
+  <si>
+    <t>Need to set an appointment over phone or online</t>
   </si>
 </sst>
 </file>
@@ -3336,7 +3345,7 @@
     <tableColumn id="2" name="Address" dataDxfId="3"/>
     <tableColumn id="3" name="Number" dataDxfId="2"/>
     <tableColumn id="4" name="Email" dataDxfId="1"/>
-    <tableColumn id="5" name="Column1" dataDxfId="0"/>
+    <tableColumn id="5" name="Notes, Who Went" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9744,7 +9753,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9752,8 +9761,8 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9770,7 +9779,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9945,7 +9954,9 @@
       <c r="D15" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -10086,16 +10097,10 @@
       <c r="E25" s="16"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>736</v>
-      </c>
+      <c r="A30" s="28"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="10" t="s">
-        <v>283</v>
-      </c>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
@@ -10107,6 +10112,9 @@
       <c r="C31" s="27"/>
       <c r="D31" s="11" t="s">
         <v>252</v>
+      </c>
+      <c r="E31" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
